--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/40_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/40_11R22.xlsx
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1613222894898886</v>
+        <v>0.1527495977943754</v>
       </c>
       <c r="E2">
-        <v>0.03454938278284612</v>
+        <v>0.03659301523446251</v>
       </c>
       <c r="F2">
-        <v>0.03538930310934287</v>
+        <v>0.03736259824145251</v>
       </c>
       <c r="G2">
-        <v>0.008068640211402529</v>
+        <v>0.01232984544018017</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,49 +710,49 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0689944770795466</v>
+        <v>0.06815357926495033</v>
       </c>
       <c r="L2">
-        <v>0.07292487232605809</v>
+        <v>0.07175483202315611</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2918381091764473</v>
+        <v>0.2723356511443241</v>
       </c>
       <c r="O2">
-        <v>0.0002482012054538961</v>
+        <v>0.005164312262429246</v>
       </c>
       <c r="P2">
-        <v>0.01329872165042877</v>
+        <v>0.01712194496875847</v>
       </c>
       <c r="Q2">
-        <v>0.07595247679809845</v>
+        <v>0.07452889627671148</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1867897678074022</v>
+        <v>0.1760843569682512</v>
       </c>
       <c r="T2">
-        <v>0.008606011936145908</v>
+        <v>0.0128222161267241</v>
       </c>
       <c r="U2">
-        <v>0.02012029251601316</v>
+        <v>0.02337225806813091</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001930907946117006</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.002277062753407794</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.002189888607870608</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01386804625222533</v>
+        <v>0.01764359270745702</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.003291545838099339</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.008029407658700421</v>
+        <v>0.01229389833314168</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -799,64 +799,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05802179344130491</v>
+        <v>0.0573170020502858</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1027319545916575</v>
+        <v>0.1086870604552426</v>
       </c>
       <c r="G3">
-        <v>0.06936186619066691</v>
+        <v>0.07034625948221949</v>
       </c>
       <c r="H3">
-        <v>0.00813568316824179</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01203717762725273</v>
+        <v>0.00448264987352717</v>
       </c>
       <c r="K3">
-        <v>0.02052474806959182</v>
+        <v>0.01423450444351915</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06653965466167951</v>
+        <v>0.06710365942565312</v>
       </c>
       <c r="N3">
-        <v>0.1309767560127608</v>
+        <v>0.141139126413118</v>
       </c>
       <c r="O3">
-        <v>0.1291422787560598</v>
+        <v>0.1390313906905294</v>
       </c>
       <c r="P3">
-        <v>0.04136758143277507</v>
+        <v>0.03818202643054429</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.164043052619832</v>
+        <v>0.1791308836387006</v>
       </c>
       <c r="S3">
-        <v>0.001074340802754849</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1414363406012869</v>
+        <v>0.1531567406954126</v>
       </c>
       <c r="U3">
-        <v>0.01474517389367799</v>
+        <v>0.007594021489900185</v>
       </c>
       <c r="V3">
-        <v>0.01425147006927756</v>
+        <v>0.007026776961102495</v>
       </c>
       <c r="W3">
-        <v>0.002086990766585298</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004448927674873909</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01907420961972067</v>
+        <v>0.01256789795024488</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -909,64 +909,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1374397035822815</v>
+        <v>0.1460468334408046</v>
       </c>
       <c r="E4">
-        <v>0.01429807020385547</v>
+        <v>0.01049832436519758</v>
       </c>
       <c r="F4">
-        <v>0.07129927378839013</v>
+        <v>0.07324256406238241</v>
       </c>
       <c r="G4">
-        <v>0.05134227900106719</v>
+        <v>0.05127484433319767</v>
       </c>
       <c r="H4">
-        <v>0.002024443417255639</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004760666813119077</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008892878864057508</v>
+        <v>0.004548544365719698</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01462144527752529</v>
+        <v>0.01085428041276319</v>
       </c>
       <c r="M4">
-        <v>0.08859118314161028</v>
+        <v>0.09227668329236315</v>
       </c>
       <c r="N4">
-        <v>0.1229201691174575</v>
+        <v>0.13006441388713</v>
       </c>
       <c r="O4">
-        <v>0.1032138269521188</v>
+        <v>0.1083726007564995</v>
       </c>
       <c r="P4">
-        <v>0.05856599955561008</v>
+        <v>0.059226375625121</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06833188123597166</v>
+        <v>0.06997619812839886</v>
       </c>
       <c r="S4">
-        <v>0.006311812573164285</v>
+        <v>0.0017074281813929</v>
       </c>
       <c r="T4">
-        <v>0.186982537983224</v>
+        <v>0.2005812516890197</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.007584178363496657</v>
+        <v>0.003107988504873026</v>
       </c>
       <c r="W4">
-        <v>0.003814444118624861</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0197951906585514</v>
+        <v>0.01654929560376489</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01565666269226719</v>
+        <v>0.01199379897596225</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01355335266035133</v>
+        <v>0.009678574375409643</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1715567336402594</v>
+        <v>0.1960862251634183</v>
       </c>
       <c r="E5">
-        <v>0.01388751504788677</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.05654070755197792</v>
+        <v>0.05304588672389377</v>
       </c>
       <c r="G5">
-        <v>0.019137581346545</v>
+        <v>0.006529274969156044</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1040,37 +1040,37 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.06298853276693887</v>
+        <v>0.06106476141739949</v>
       </c>
       <c r="L5">
-        <v>0.05011465824785134</v>
+        <v>0.04505409376639921</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2355300864120008</v>
+        <v>0.2756470511004685</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.009076718324801347</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.109910836525318</v>
+        <v>0.119419952760987</v>
       </c>
       <c r="R5">
-        <v>0.02894203456019351</v>
+        <v>0.01872263926447885</v>
       </c>
       <c r="S5">
-        <v>0.1691530488526429</v>
+        <v>0.1930968688344255</v>
       </c>
       <c r="T5">
-        <v>0.02022536155419635</v>
+        <v>0.007882099043697069</v>
       </c>
       <c r="U5">
-        <v>0.03274413800809134</v>
+        <v>0.02345114695567615</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.008401766306039705</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01179028085525688</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1129,55 +1129,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1617311078452908</v>
+        <v>0.1696749000475067</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0857965503641495</v>
+        <v>0.08805910679608797</v>
       </c>
       <c r="G6">
-        <v>0.09142081877735227</v>
+        <v>0.09410416906061021</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01382405660982873</v>
+        <v>0.01070180907955718</v>
       </c>
       <c r="J6">
-        <v>0.008264340659643229</v>
+        <v>0.004726128933667756</v>
       </c>
       <c r="K6">
-        <v>0.003867195268047824</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03841562329792623</v>
+        <v>0.03713325596120528</v>
       </c>
       <c r="N6">
-        <v>0.1720854398611379</v>
+        <v>0.1808039175738392</v>
       </c>
       <c r="O6">
-        <v>0.06697798134333698</v>
+        <v>0.06783257898796012</v>
       </c>
       <c r="P6">
-        <v>0.03686668816274159</v>
+        <v>0.03546843333042241</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.08788013089811365</v>
+        <v>0.09029857567196747</v>
       </c>
       <c r="S6">
-        <v>0.01179446964685298</v>
+        <v>0.008520373440096938</v>
       </c>
       <c r="T6">
-        <v>0.1467798036531358</v>
+        <v>0.1536049762570237</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01035440073820133</v>
+        <v>0.006972562137640886</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01668491778196502</v>
+        <v>0.01377671280839072</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02804792327041222</v>
+        <v>0.02598987026163812</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01286236971288941</v>
+        <v>0.009668171147674962</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006346182108974349</v>
+        <v>0.00266445850471039</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1772362706961595</v>
+        <v>0.1685239003719</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1279922415313361</v>
+        <v>0.1231790901210848</v>
       </c>
       <c r="H7">
-        <v>0.06066220985624814</v>
+        <v>0.06118035520300177</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02093107195454266</v>
+        <v>0.02459519067124272</v>
       </c>
       <c r="L7">
-        <v>0.01429505761879556</v>
+        <v>0.0184846262844624</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1272,28 +1272,28 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2102880278316758</v>
+        <v>0.1989585679079309</v>
       </c>
       <c r="P7">
-        <v>0.03166698223791399</v>
+        <v>0.03448101485999529</v>
       </c>
       <c r="Q7">
-        <v>0.04799774308876594</v>
+        <v>0.04951868063577418</v>
       </c>
       <c r="R7">
-        <v>0.02121514349438493</v>
+        <v>0.02485676898419292</v>
       </c>
       <c r="S7">
-        <v>0.1434546990129599</v>
+        <v>0.1374172061405672</v>
       </c>
       <c r="T7">
-        <v>0.03741703304386175</v>
+        <v>0.03977576768892301</v>
       </c>
       <c r="U7">
-        <v>0.07706274932819029</v>
+        <v>0.07628227441999091</v>
       </c>
       <c r="V7">
-        <v>0.01551122729961706</v>
+        <v>0.01960449775608923</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.002557928680053135</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01426954300554838</v>
+        <v>0.01846113195802449</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.002122998316767146</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,61 +1349,61 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02928916697882518</v>
+        <v>0.02853592853180223</v>
       </c>
       <c r="E8">
-        <v>0.08036247170606452</v>
+        <v>0.08085737340963259</v>
       </c>
       <c r="F8">
-        <v>0.06192098135623707</v>
+        <v>0.0619652060443803</v>
       </c>
       <c r="G8">
-        <v>0.1002516722918425</v>
+        <v>0.1012326304577219</v>
       </c>
       <c r="H8">
-        <v>0.005964402953988293</v>
+        <v>0.00464114902357459</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.002750620895859941</v>
+        <v>0.001348827884346601</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.001433969612190572</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02982594330393439</v>
+        <v>0.02908582270951239</v>
       </c>
       <c r="N8">
-        <v>0.09710896158175231</v>
+        <v>0.09801311752306632</v>
       </c>
       <c r="O8">
-        <v>0.1937073449403198</v>
+        <v>0.1969721924678924</v>
       </c>
       <c r="P8">
-        <v>0.02113391617525349</v>
+        <v>0.02018137799580792</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1914882314086153</v>
+        <v>0.1946988477735006</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1508636206965389</v>
+        <v>0.1530814442902755</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0009117171433438462</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01108646451649061</v>
+        <v>0.009888384602602782</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01284847470617021</v>
+        <v>0.01169345516746731</v>
       </c>
       <c r="AD8">
-        <v>0.009052039732573226</v>
+        <v>0.007804242118416614</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1459,58 +1459,58 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07818617827537691</v>
+        <v>0.07891557649926989</v>
       </c>
       <c r="E9">
-        <v>0.09300300286609434</v>
+        <v>0.09429055641348298</v>
       </c>
       <c r="F9">
-        <v>0.09523249099070652</v>
+        <v>0.09660403018952836</v>
       </c>
       <c r="G9">
-        <v>0.1370797331160993</v>
+        <v>0.140027673575724</v>
       </c>
       <c r="H9">
-        <v>0.004969308529992699</v>
+        <v>0.002940599889093691</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01437325349464726</v>
+        <v>0.01269879497743338</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.002135460746692083</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0266567669904347</v>
+        <v>0.0254450330203684</v>
       </c>
       <c r="N9">
-        <v>0.07457751246954215</v>
+        <v>0.07517097090296845</v>
       </c>
       <c r="O9">
-        <v>0.1644846927274267</v>
+        <v>0.1684649882644564</v>
       </c>
       <c r="P9">
-        <v>0.02932955693748128</v>
+        <v>0.0282185079642843</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1308093190303934</v>
+        <v>0.1335210506464139</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1300480904441692</v>
+        <v>0.132731146294664</v>
       </c>
       <c r="U9">
-        <v>0.002446534551885703</v>
+        <v>0.0003227920717699589</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.005693356298389753</v>
+        <v>0.003691922807704048</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.007148788929957352</v>
+        <v>0.005202182130802282</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.003825953600710481</v>
+        <v>0.001754174352036058</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2718815276581096</v>
+        <v>0.2564499300967058</v>
       </c>
       <c r="E10">
-        <v>0.02063052017547944</v>
+        <v>0.02379971605907798</v>
       </c>
       <c r="F10">
-        <v>0.1521156893069419</v>
+        <v>0.1455506815485327</v>
       </c>
       <c r="G10">
-        <v>0.04046776327057917</v>
+        <v>0.0421683542517446</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01821514547313902</v>
+        <v>0.02156315809614356</v>
       </c>
       <c r="K10">
-        <v>0.005692254259961563</v>
+        <v>0.009967370479980153</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1599,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2551878666107641</v>
+        <v>0.2409921460477999</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.003584773280560407</v>
       </c>
       <c r="P10">
-        <v>0.00323983956052154</v>
+        <v>0.007696514691379224</v>
       </c>
       <c r="Q10">
-        <v>0.05262215713561566</v>
+        <v>0.05342292537776828</v>
       </c>
       <c r="R10">
-        <v>0.04351844359245516</v>
+        <v>0.04499318443633159</v>
       </c>
       <c r="S10">
-        <v>0.03584132027479876</v>
+        <v>0.03788441937727207</v>
       </c>
       <c r="T10">
-        <v>0.03118183299040152</v>
+        <v>0.03356988657248097</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01237692017657671</v>
+        <v>0.01615715245081688</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02594915500880376</v>
+        <v>0.02872459793222402</v>
       </c>
       <c r="AC10">
-        <v>0.03107956450585208</v>
+        <v>0.03347518930118197</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2444078529870764</v>
+        <v>0.2349178465314651</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1158616547028272</v>
+        <v>0.1130230856429408</v>
       </c>
       <c r="G11">
-        <v>0.06327060812326102</v>
+        <v>0.06315328682152405</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02733575034037633</v>
+        <v>0.02907782636082701</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.002073125531606556</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1709,25 +1709,25 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2154603942572758</v>
+        <v>0.2074682322504038</v>
       </c>
       <c r="O11">
-        <v>0.0270681532972942</v>
+        <v>0.02882407574030034</v>
       </c>
       <c r="P11">
-        <v>0.05709177757177522</v>
+        <v>0.05729417093403104</v>
       </c>
       <c r="Q11">
-        <v>0.001232168561362074</v>
+        <v>0.004324936724596832</v>
       </c>
       <c r="R11">
-        <v>0.09453780899194306</v>
+        <v>0.09280261153444676</v>
       </c>
       <c r="S11">
-        <v>0.03401144987172554</v>
+        <v>0.03540810146035247</v>
       </c>
       <c r="T11">
-        <v>0.09511968761217045</v>
+        <v>0.0933543816857656</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.0013197817579495</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0006024729299085801</v>
+        <v>0.003727823784244888</v>
       </c>
       <c r="Z11">
-        <v>0.001504264102139588</v>
+        <v>0.004582953074551948</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.02127836800846701</v>
+        <v>0.02333387453017276</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.001217588642397587</v>
+        <v>0.004311111222484195</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.00100277441233612</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1613222894898886</v>
+        <v>0.1527495977943754</v>
       </c>
       <c r="E2">
-        <v>0.1958716722727348</v>
+        <v>0.1893426130288379</v>
       </c>
       <c r="F2">
-        <v>0.2312609753820776</v>
+        <v>0.2267052112702904</v>
       </c>
       <c r="G2">
-        <v>0.2393296155934801</v>
+        <v>0.2390350567104706</v>
       </c>
       <c r="H2">
-        <v>0.2393296155934801</v>
+        <v>0.2390350567104706</v>
       </c>
       <c r="I2">
-        <v>0.2393296155934801</v>
+        <v>0.2390350567104706</v>
       </c>
       <c r="J2">
-        <v>0.2393296155934801</v>
+        <v>0.2390350567104706</v>
       </c>
       <c r="K2">
-        <v>0.3083240926730267</v>
+        <v>0.307188635975421</v>
       </c>
       <c r="L2">
-        <v>0.3812489649990848</v>
+        <v>0.378943467998577</v>
       </c>
       <c r="M2">
-        <v>0.3812489649990848</v>
+        <v>0.378943467998577</v>
       </c>
       <c r="N2">
-        <v>0.6730870741755322</v>
+        <v>0.651279119142901</v>
       </c>
       <c r="O2">
-        <v>0.673335275380986</v>
+        <v>0.6564434314053302</v>
       </c>
       <c r="P2">
-        <v>0.6866339970314148</v>
+        <v>0.6735653763740888</v>
       </c>
       <c r="Q2">
-        <v>0.7625864738295133</v>
+        <v>0.7480942726508002</v>
       </c>
       <c r="R2">
-        <v>0.7625864738295133</v>
+        <v>0.7480942726508002</v>
       </c>
       <c r="S2">
-        <v>0.9493762416369155</v>
+        <v>0.9241786296190514</v>
       </c>
       <c r="T2">
-        <v>0.9579822535730613</v>
+        <v>0.9370008457457755</v>
       </c>
       <c r="U2">
-        <v>0.9781025460890744</v>
+        <v>0.9603731038139064</v>
       </c>
       <c r="V2">
-        <v>0.9781025460890744</v>
+        <v>0.9623040117600234</v>
       </c>
       <c r="W2">
-        <v>0.9781025460890744</v>
+        <v>0.9645810745134312</v>
       </c>
       <c r="X2">
-        <v>0.9781025460890744</v>
+        <v>0.9645810745134312</v>
       </c>
       <c r="Y2">
-        <v>0.9781025460890744</v>
+        <v>0.9667709631213018</v>
       </c>
       <c r="Z2">
-        <v>0.9781025460890744</v>
+        <v>0.9667709631213018</v>
       </c>
       <c r="AA2">
-        <v>0.9781025460890744</v>
+        <v>0.9667709631213018</v>
       </c>
       <c r="AB2">
-        <v>0.9919705923412998</v>
+        <v>0.9844145558287588</v>
       </c>
       <c r="AC2">
-        <v>0.9919705923412998</v>
+        <v>0.9877061016668581</v>
       </c>
       <c r="AD2">
-        <v>0.9919705923412998</v>
+        <v>0.9877061016668581</v>
       </c>
       <c r="AE2">
-        <v>0.9919705923412998</v>
+        <v>0.9877061016668581</v>
       </c>
       <c r="AF2">
-        <v>0.9919705923412998</v>
+        <v>0.9877061016668581</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05802179344130491</v>
+        <v>0.0573170020502858</v>
       </c>
       <c r="E3">
-        <v>0.05802179344130491</v>
+        <v>0.0573170020502858</v>
       </c>
       <c r="F3">
-        <v>0.1607537480329624</v>
+        <v>0.1660040625055284</v>
       </c>
       <c r="G3">
-        <v>0.2301156142236294</v>
+        <v>0.2363503219877479</v>
       </c>
       <c r="H3">
-        <v>0.2382512973918711</v>
+        <v>0.2363503219877479</v>
       </c>
       <c r="I3">
-        <v>0.2382512973918711</v>
+        <v>0.2363503219877479</v>
       </c>
       <c r="J3">
-        <v>0.2502884750191239</v>
+        <v>0.2408329718612751</v>
       </c>
       <c r="K3">
-        <v>0.2708132230887157</v>
+        <v>0.2550674763047943</v>
       </c>
       <c r="L3">
-        <v>0.2708132230887157</v>
+        <v>0.2550674763047943</v>
       </c>
       <c r="M3">
-        <v>0.3373528777503952</v>
+        <v>0.3221711357304474</v>
       </c>
       <c r="N3">
-        <v>0.468329633763156</v>
+        <v>0.4633102621435654</v>
       </c>
       <c r="O3">
-        <v>0.5974719125192158</v>
+        <v>0.6023416528340948</v>
       </c>
       <c r="P3">
-        <v>0.6388394939519909</v>
+        <v>0.640523679264639</v>
       </c>
       <c r="Q3">
-        <v>0.6388394939519909</v>
+        <v>0.640523679264639</v>
       </c>
       <c r="R3">
-        <v>0.8028825465718229</v>
+        <v>0.8196545629033397</v>
       </c>
       <c r="S3">
-        <v>0.8039568873745777</v>
+        <v>0.8196545629033397</v>
       </c>
       <c r="T3">
-        <v>0.9453932279758646</v>
+        <v>0.9728113035987523</v>
       </c>
       <c r="U3">
-        <v>0.9601384018695426</v>
+        <v>0.9804053250886525</v>
       </c>
       <c r="V3">
-        <v>0.9743898719388201</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="W3">
-        <v>0.9764768627054053</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="X3">
-        <v>0.9764768627054053</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="Y3">
-        <v>0.9764768627054053</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="Z3">
-        <v>0.9809257903802793</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="AA3">
-        <v>0.9809257903802793</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="AB3">
-        <v>0.9809257903802793</v>
+        <v>0.9874321020497551</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1374397035822815</v>
+        <v>0.1460468334408046</v>
       </c>
       <c r="E4">
-        <v>0.151737773786137</v>
+        <v>0.1565451578060022</v>
       </c>
       <c r="F4">
-        <v>0.2230370475745271</v>
+        <v>0.2297877218683846</v>
       </c>
       <c r="G4">
-        <v>0.2743793265755943</v>
+        <v>0.2810625662015823</v>
       </c>
       <c r="H4">
-        <v>0.2764037699928499</v>
+        <v>0.2810625662015823</v>
       </c>
       <c r="I4">
-        <v>0.281164436805969</v>
+        <v>0.2810625662015823</v>
       </c>
       <c r="J4">
-        <v>0.2900573156700265</v>
+        <v>0.285611110567302</v>
       </c>
       <c r="K4">
-        <v>0.2900573156700265</v>
+        <v>0.285611110567302</v>
       </c>
       <c r="L4">
-        <v>0.3046787609475518</v>
+        <v>0.2964653909800652</v>
       </c>
       <c r="M4">
-        <v>0.3932699440891621</v>
+        <v>0.3887420742724284</v>
       </c>
       <c r="N4">
-        <v>0.5161901132066196</v>
+        <v>0.5188064881595584</v>
       </c>
       <c r="O4">
-        <v>0.6194039401587383</v>
+        <v>0.627179088916058</v>
       </c>
       <c r="P4">
-        <v>0.6779699397143484</v>
+        <v>0.686405464541179</v>
       </c>
       <c r="Q4">
-        <v>0.6779699397143484</v>
+        <v>0.686405464541179</v>
       </c>
       <c r="R4">
-        <v>0.74630182095032</v>
+        <v>0.7563816626695778</v>
       </c>
       <c r="S4">
-        <v>0.7526136335234843</v>
+        <v>0.7580890908509708</v>
       </c>
       <c r="T4">
-        <v>0.9395961715067083</v>
+        <v>0.9586703425399905</v>
       </c>
       <c r="U4">
-        <v>0.9395961715067083</v>
+        <v>0.9586703425399905</v>
       </c>
       <c r="V4">
-        <v>0.9471803498702049</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="W4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="X4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="Y4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="Z4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="AA4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="AB4">
-        <v>0.9509947939888298</v>
+        <v>0.9617783310448635</v>
       </c>
       <c r="AC4">
-        <v>0.9707899846473812</v>
+        <v>0.9783276266486285</v>
       </c>
       <c r="AD4">
-        <v>0.9707899846473812</v>
+        <v>0.9783276266486285</v>
       </c>
       <c r="AE4">
-        <v>0.9864466473396484</v>
+        <v>0.9903214256245907</v>
       </c>
       <c r="AF4">
-        <v>0.9864466473396484</v>
+        <v>0.9903214256245907</v>
       </c>
       <c r="AG4">
-        <v>0.9864466473396484</v>
+        <v>0.9903214256245907</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1715567336402594</v>
+        <v>0.1960862251634183</v>
       </c>
       <c r="E5">
-        <v>0.1854442486881462</v>
+        <v>0.1960862251634183</v>
       </c>
       <c r="F5">
-        <v>0.2419849562401241</v>
+        <v>0.2491321118873121</v>
       </c>
       <c r="G5">
-        <v>0.2611225375866691</v>
+        <v>0.2556613868564682</v>
       </c>
       <c r="H5">
-        <v>0.2611225375866691</v>
+        <v>0.2556613868564682</v>
       </c>
       <c r="I5">
-        <v>0.2611225375866691</v>
+        <v>0.2556613868564682</v>
       </c>
       <c r="J5">
-        <v>0.2611225375866691</v>
+        <v>0.2556613868564682</v>
       </c>
       <c r="K5">
-        <v>0.324111070353608</v>
+        <v>0.3167261482738676</v>
       </c>
       <c r="L5">
-        <v>0.3742257286014593</v>
+        <v>0.3617802420402668</v>
       </c>
       <c r="M5">
-        <v>0.3742257286014593</v>
+        <v>0.3617802420402668</v>
       </c>
       <c r="N5">
-        <v>0.6097558150134601</v>
+        <v>0.6374272931407353</v>
       </c>
       <c r="O5">
-        <v>0.6097558150134601</v>
+        <v>0.6374272931407353</v>
       </c>
       <c r="P5">
-        <v>0.6188325333382615</v>
+        <v>0.6374272931407353</v>
       </c>
       <c r="Q5">
-        <v>0.7287433698635795</v>
+        <v>0.7568472459017224</v>
       </c>
       <c r="R5">
-        <v>0.757685404423773</v>
+        <v>0.7755698851662012</v>
       </c>
       <c r="S5">
-        <v>0.9268384532764158</v>
+        <v>0.9686667540006266</v>
       </c>
       <c r="T5">
-        <v>0.9470638148306121</v>
+        <v>0.9765488530443237</v>
       </c>
       <c r="U5">
-        <v>0.9798079528387034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V5">
-        <v>0.9798079528387034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W5">
-        <v>0.9798079528387034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X5">
-        <v>0.9798079528387034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.9798079528387034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.9882097191447431</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.9882097191447431</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.9882097191447431</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1617311078452908</v>
+        <v>0.1696749000475067</v>
       </c>
       <c r="E6">
-        <v>0.1617311078452908</v>
+        <v>0.1696749000475067</v>
       </c>
       <c r="F6">
-        <v>0.2475276582094403</v>
+        <v>0.2577340068435947</v>
       </c>
       <c r="G6">
-        <v>0.3389484769867926</v>
+        <v>0.3518381759042049</v>
       </c>
       <c r="H6">
-        <v>0.3389484769867926</v>
+        <v>0.3518381759042049</v>
       </c>
       <c r="I6">
-        <v>0.3527725335966213</v>
+        <v>0.3625399849837621</v>
       </c>
       <c r="J6">
-        <v>0.3610368742562645</v>
+        <v>0.3672661139174299</v>
       </c>
       <c r="K6">
-        <v>0.3649040695243123</v>
+        <v>0.3672661139174299</v>
       </c>
       <c r="L6">
-        <v>0.3649040695243123</v>
+        <v>0.3672661139174299</v>
       </c>
       <c r="M6">
-        <v>0.4033196928222386</v>
+        <v>0.4043993698786351</v>
       </c>
       <c r="N6">
-        <v>0.5754051326833765</v>
+        <v>0.5852032874524744</v>
       </c>
       <c r="O6">
-        <v>0.6423831140267134</v>
+        <v>0.6530358664404345</v>
       </c>
       <c r="P6">
-        <v>0.6792498021894551</v>
+        <v>0.6885042997708569</v>
       </c>
       <c r="Q6">
-        <v>0.6792498021894551</v>
+        <v>0.6885042997708569</v>
       </c>
       <c r="R6">
-        <v>0.7671299330875687</v>
+        <v>0.7788028754428244</v>
       </c>
       <c r="S6">
-        <v>0.7789244027344217</v>
+        <v>0.7873232488829214</v>
       </c>
       <c r="T6">
-        <v>0.9257042063875575</v>
+        <v>0.9409282251399451</v>
       </c>
       <c r="U6">
-        <v>0.9257042063875575</v>
+        <v>0.9409282251399451</v>
       </c>
       <c r="V6">
-        <v>0.9257042063875575</v>
+        <v>0.9409282251399451</v>
       </c>
       <c r="W6">
-        <v>0.9360586071257588</v>
+        <v>0.947900787277586</v>
       </c>
       <c r="X6">
-        <v>0.9360586071257588</v>
+        <v>0.947900787277586</v>
       </c>
       <c r="Y6">
-        <v>0.9360586071257588</v>
+        <v>0.947900787277586</v>
       </c>
       <c r="Z6">
-        <v>0.9527435249077238</v>
+        <v>0.9616775000859767</v>
       </c>
       <c r="AA6">
-        <v>0.9527435249077238</v>
+        <v>0.9616775000859767</v>
       </c>
       <c r="AB6">
-        <v>0.9527435249077238</v>
+        <v>0.9616775000859767</v>
       </c>
       <c r="AC6">
-        <v>0.9807914481781361</v>
+        <v>0.9876673703476149</v>
       </c>
       <c r="AD6">
-        <v>0.9807914481781361</v>
+        <v>0.9876673703476149</v>
       </c>
       <c r="AE6">
-        <v>0.9936538178910256</v>
+        <v>0.9973355414952898</v>
       </c>
       <c r="AF6">
-        <v>0.9936538178910256</v>
+        <v>0.9973355414952898</v>
       </c>
       <c r="AG6">
-        <v>0.9936538178910256</v>
+        <v>0.9973355414952898</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1772362706961595</v>
+        <v>0.1685239003719</v>
       </c>
       <c r="F7">
-        <v>0.1772362706961595</v>
+        <v>0.1685239003719</v>
       </c>
       <c r="G7">
-        <v>0.3052285122274956</v>
+        <v>0.2917029904929848</v>
       </c>
       <c r="H7">
-        <v>0.3658907220837437</v>
+        <v>0.3528833456959865</v>
       </c>
       <c r="I7">
-        <v>0.3658907220837437</v>
+        <v>0.3528833456959865</v>
       </c>
       <c r="J7">
-        <v>0.3658907220837437</v>
+        <v>0.3528833456959865</v>
       </c>
       <c r="K7">
-        <v>0.3868217940382864</v>
+        <v>0.3774785363672292</v>
       </c>
       <c r="L7">
-        <v>0.4011168516570819</v>
+        <v>0.3959631626516916</v>
       </c>
       <c r="M7">
-        <v>0.4011168516570819</v>
+        <v>0.3959631626516916</v>
       </c>
       <c r="N7">
-        <v>0.4011168516570819</v>
+        <v>0.3959631626516916</v>
       </c>
       <c r="O7">
-        <v>0.6114048794887577</v>
+        <v>0.5949217305596225</v>
       </c>
       <c r="P7">
-        <v>0.6430718617266716</v>
+        <v>0.6294027454196178</v>
       </c>
       <c r="Q7">
-        <v>0.6910696048154376</v>
+        <v>0.678921426055392</v>
       </c>
       <c r="R7">
-        <v>0.7122847483098225</v>
+        <v>0.7037781950395848</v>
       </c>
       <c r="S7">
-        <v>0.8557394473227824</v>
+        <v>0.841195401180152</v>
       </c>
       <c r="T7">
-        <v>0.8931564803666442</v>
+        <v>0.880971168869075</v>
       </c>
       <c r="U7">
-        <v>0.9702192296948344</v>
+        <v>0.9572534432890659</v>
       </c>
       <c r="V7">
-        <v>0.9857304569944515</v>
+        <v>0.9768579410451551</v>
       </c>
       <c r="W7">
-        <v>0.9857304569944515</v>
+        <v>0.9768579410451551</v>
       </c>
       <c r="X7">
-        <v>0.9857304569944515</v>
+        <v>0.9768579410451551</v>
       </c>
       <c r="Y7">
-        <v>0.9857304569944515</v>
+        <v>0.9768579410451551</v>
       </c>
       <c r="Z7">
-        <v>0.9857304569944515</v>
+        <v>0.9768579410451551</v>
       </c>
       <c r="AA7">
-        <v>0.9857304569944515</v>
+        <v>0.9794158697252082</v>
       </c>
       <c r="AB7">
-        <v>0.9857304569944515</v>
+        <v>0.9794158697252082</v>
       </c>
       <c r="AC7">
-        <v>0.9857304569944515</v>
+        <v>0.9794158697252082</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>0.9978770016832327</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>0.9978770016832327</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02928916697882518</v>
+        <v>0.02853592853180223</v>
       </c>
       <c r="E8">
-        <v>0.1096516386848897</v>
+        <v>0.1093933019414348</v>
       </c>
       <c r="F8">
-        <v>0.1715726200411268</v>
+        <v>0.1713585079858151</v>
       </c>
       <c r="G8">
-        <v>0.2718242923329693</v>
+        <v>0.272591138443537</v>
       </c>
       <c r="H8">
-        <v>0.2777886952869577</v>
+        <v>0.2772322874671116</v>
       </c>
       <c r="I8">
-        <v>0.2777886952869577</v>
+        <v>0.2772322874671116</v>
       </c>
       <c r="J8">
-        <v>0.2805393161828176</v>
+        <v>0.2785811153514582</v>
       </c>
       <c r="K8">
-        <v>0.2805393161828176</v>
+        <v>0.2785811153514582</v>
       </c>
       <c r="L8">
-        <v>0.2819732857950081</v>
+        <v>0.2785811153514582</v>
       </c>
       <c r="M8">
-        <v>0.3117992290989425</v>
+        <v>0.3076669380609706</v>
       </c>
       <c r="N8">
-        <v>0.4089081906806948</v>
+        <v>0.4056800555840369</v>
       </c>
       <c r="O8">
-        <v>0.6026155356210147</v>
+        <v>0.6026522480519293</v>
       </c>
       <c r="P8">
-        <v>0.6237494517962682</v>
+        <v>0.6228336260477372</v>
       </c>
       <c r="Q8">
-        <v>0.6237494517962682</v>
+        <v>0.6228336260477372</v>
       </c>
       <c r="R8">
-        <v>0.8152376832048834</v>
+        <v>0.8175324738212377</v>
       </c>
       <c r="S8">
-        <v>0.8152376832048834</v>
+        <v>0.8175324738212377</v>
       </c>
       <c r="T8">
-        <v>0.9661013039014223</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="U8">
-        <v>0.9661013039014223</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="V8">
-        <v>0.9670130210447662</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="W8">
-        <v>0.9670130210447662</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="X8">
-        <v>0.9670130210447662</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="Y8">
-        <v>0.9670130210447662</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="Z8">
-        <v>0.9780994855612568</v>
+        <v>0.980502302714116</v>
       </c>
       <c r="AA8">
-        <v>0.9780994855612568</v>
+        <v>0.980502302714116</v>
       </c>
       <c r="AB8">
-        <v>0.9780994855612568</v>
+        <v>0.980502302714116</v>
       </c>
       <c r="AC8">
-        <v>0.990947960267427</v>
+        <v>0.9921957578815833</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07818617827537691</v>
+        <v>0.07891557649926989</v>
       </c>
       <c r="E9">
-        <v>0.1711891811414712</v>
+        <v>0.1732061329127529</v>
       </c>
       <c r="F9">
-        <v>0.2664216721321778</v>
+        <v>0.2698101631022812</v>
       </c>
       <c r="G9">
-        <v>0.4035014052482771</v>
+        <v>0.4098378366780052</v>
       </c>
       <c r="H9">
-        <v>0.4084707137782698</v>
+        <v>0.4127784365670989</v>
       </c>
       <c r="I9">
-        <v>0.4084707137782698</v>
+        <v>0.4127784365670989</v>
       </c>
       <c r="J9">
-        <v>0.4228439672729171</v>
+        <v>0.4254772315445323</v>
       </c>
       <c r="K9">
-        <v>0.4228439672729171</v>
+        <v>0.4254772315445323</v>
       </c>
       <c r="L9">
-        <v>0.4249794280196091</v>
+        <v>0.4254772315445323</v>
       </c>
       <c r="M9">
-        <v>0.4516361950100438</v>
+        <v>0.4509222645649006</v>
       </c>
       <c r="N9">
-        <v>0.526213707479586</v>
+        <v>0.5260932354678691</v>
       </c>
       <c r="O9">
-        <v>0.6906984002070127</v>
+        <v>0.6945582237323256</v>
       </c>
       <c r="P9">
-        <v>0.720027957144494</v>
+        <v>0.7227767316966098</v>
       </c>
       <c r="Q9">
-        <v>0.720027957144494</v>
+        <v>0.7227767316966098</v>
       </c>
       <c r="R9">
-        <v>0.8508372761748875</v>
+        <v>0.8562977823430238</v>
       </c>
       <c r="S9">
-        <v>0.8508372761748875</v>
+        <v>0.8562977823430238</v>
       </c>
       <c r="T9">
-        <v>0.9808853666190567</v>
+        <v>0.9890289286376878</v>
       </c>
       <c r="U9">
-        <v>0.9833319011709424</v>
+        <v>0.9893517207094578</v>
       </c>
       <c r="V9">
-        <v>0.9833319011709424</v>
+        <v>0.9893517207094578</v>
       </c>
       <c r="W9">
-        <v>0.9833319011709424</v>
+        <v>0.9893517207094578</v>
       </c>
       <c r="X9">
-        <v>0.9833319011709424</v>
+        <v>0.9893517207094578</v>
       </c>
       <c r="Y9">
-        <v>0.9833319011709424</v>
+        <v>0.9893517207094578</v>
       </c>
       <c r="Z9">
-        <v>0.9890252574693321</v>
+        <v>0.9930436435171618</v>
       </c>
       <c r="AA9">
-        <v>0.9890252574693321</v>
+        <v>0.9930436435171618</v>
       </c>
       <c r="AB9">
-        <v>0.9890252574693321</v>
+        <v>0.9930436435171618</v>
       </c>
       <c r="AC9">
-        <v>0.9961740463992895</v>
+        <v>0.998245825647964</v>
       </c>
       <c r="AD9">
-        <v>0.9961740463992895</v>
+        <v>0.998245825647964</v>
       </c>
       <c r="AE9">
-        <v>0.9961740463992895</v>
+        <v>0.998245825647964</v>
       </c>
       <c r="AF9">
-        <v>0.9961740463992895</v>
+        <v>0.998245825647964</v>
       </c>
       <c r="AG9">
-        <v>0.9961740463992895</v>
+        <v>0.998245825647964</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,79 +2792,79 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2718815276581096</v>
+        <v>0.2564499300967058</v>
       </c>
       <c r="E10">
-        <v>0.2925120478335891</v>
+        <v>0.2802496461557838</v>
       </c>
       <c r="F10">
-        <v>0.4446277371405309</v>
+        <v>0.4258003277043164</v>
       </c>
       <c r="G10">
-        <v>0.4850955004111101</v>
+        <v>0.467968681956061</v>
       </c>
       <c r="H10">
-        <v>0.4850955004111101</v>
+        <v>0.467968681956061</v>
       </c>
       <c r="I10">
-        <v>0.4850955004111101</v>
+        <v>0.467968681956061</v>
       </c>
       <c r="J10">
-        <v>0.5033106458842491</v>
+        <v>0.4895318400522046</v>
       </c>
       <c r="K10">
-        <v>0.5090029001442107</v>
+        <v>0.4994992105321847</v>
       </c>
       <c r="L10">
-        <v>0.5090029001442107</v>
+        <v>0.4994992105321847</v>
       </c>
       <c r="M10">
-        <v>0.5090029001442107</v>
+        <v>0.4994992105321847</v>
       </c>
       <c r="N10">
-        <v>0.7641907667549748</v>
+        <v>0.7404913565799847</v>
       </c>
       <c r="O10">
-        <v>0.7641907667549748</v>
+        <v>0.7440761298605451</v>
       </c>
       <c r="P10">
-        <v>0.7674306063154963</v>
+        <v>0.7517726445519243</v>
       </c>
       <c r="Q10">
-        <v>0.820052763451112</v>
+        <v>0.8051955699296925</v>
       </c>
       <c r="R10">
-        <v>0.8635712070435672</v>
+        <v>0.8501887543660241</v>
       </c>
       <c r="S10">
-        <v>0.899412527318366</v>
+        <v>0.8880731737432962</v>
       </c>
       <c r="T10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="U10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="V10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="W10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="X10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="Y10">
-        <v>0.9429712804853442</v>
+        <v>0.937800212766594</v>
       </c>
       <c r="Z10">
-        <v>0.9429712804853442</v>
+        <v>0.937800212766594</v>
       </c>
       <c r="AA10">
-        <v>0.9429712804853442</v>
+        <v>0.937800212766594</v>
       </c>
       <c r="AB10">
-        <v>0.968920435494148</v>
+        <v>0.966524810698818</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2444078529870764</v>
+        <v>0.2349178465314651</v>
       </c>
       <c r="E11">
-        <v>0.2444078529870764</v>
+        <v>0.2349178465314651</v>
       </c>
       <c r="F11">
-        <v>0.3602695076899036</v>
+        <v>0.3479409321744059</v>
       </c>
       <c r="G11">
-        <v>0.4235401158131646</v>
+        <v>0.41109421899593</v>
       </c>
       <c r="H11">
-        <v>0.4235401158131646</v>
+        <v>0.41109421899593</v>
       </c>
       <c r="I11">
-        <v>0.4235401158131646</v>
+        <v>0.41109421899593</v>
       </c>
       <c r="J11">
-        <v>0.450875866153541</v>
+        <v>0.440172045356757</v>
       </c>
       <c r="K11">
-        <v>0.450875866153541</v>
+        <v>0.4422451708883635</v>
       </c>
       <c r="L11">
-        <v>0.450875866153541</v>
+        <v>0.4422451708883635</v>
       </c>
       <c r="M11">
-        <v>0.450875866153541</v>
+        <v>0.4422451708883635</v>
       </c>
       <c r="N11">
-        <v>0.6663362604108168</v>
+        <v>0.6497134031387672</v>
       </c>
       <c r="O11">
-        <v>0.693404413708111</v>
+        <v>0.6785374788790676</v>
       </c>
       <c r="P11">
-        <v>0.7504961912798862</v>
+        <v>0.7358316498130986</v>
       </c>
       <c r="Q11">
-        <v>0.7517283598412483</v>
+        <v>0.7401565865376954</v>
       </c>
       <c r="R11">
-        <v>0.8462661688331914</v>
+        <v>0.8329591980721422</v>
       </c>
       <c r="S11">
-        <v>0.8802776187049169</v>
+        <v>0.8683672995324947</v>
       </c>
       <c r="T11">
-        <v>0.9753973063170874</v>
+        <v>0.9617216812182603</v>
       </c>
       <c r="U11">
-        <v>0.9753973063170874</v>
+        <v>0.9617216812182603</v>
       </c>
       <c r="V11">
-        <v>0.9753973063170874</v>
+        <v>0.9617216812182603</v>
       </c>
       <c r="W11">
-        <v>0.9753973063170874</v>
+        <v>0.9630414629762097</v>
       </c>
       <c r="X11">
-        <v>0.9753973063170874</v>
+        <v>0.9630414629762097</v>
       </c>
       <c r="Y11">
-        <v>0.975999779246996</v>
+        <v>0.9667692867604546</v>
       </c>
       <c r="Z11">
-        <v>0.9775040433491355</v>
+        <v>0.9713522398350065</v>
       </c>
       <c r="AA11">
-        <v>0.9775040433491355</v>
+        <v>0.9713522398350065</v>
       </c>
       <c r="AB11">
-        <v>0.9775040433491355</v>
+        <v>0.9713522398350065</v>
       </c>
       <c r="AC11">
-        <v>0.9987824113576026</v>
+        <v>0.9946861143651793</v>
       </c>
       <c r="AD11">
-        <v>0.9987824113576026</v>
+        <v>0.9946861143651793</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9989972255876635</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9989972255876635</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9989972255876635</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6730870741755322</v>
+        <v>0.651279119142901</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5974719125192158</v>
+        <v>0.6023416528340948</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5161901132066196</v>
+        <v>0.5188064881595584</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6097558150134601</v>
+        <v>0.6374272931407353</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5754051326833765</v>
+        <v>0.5852032874524744</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6114048794887577</v>
+        <v>0.5949217305596225</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6026155356210147</v>
+        <v>0.6026522480519293</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.526213707479586</v>
+        <v>0.5260932354678691</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3394,16 +3394,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5033106458842491</v>
+        <v>0.7404913565799847</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>40</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6663362604108168</v>
+        <v>0.6497134031387672</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7625864738295133</v>
+        <v>0.7480942726508002</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8028825465718229</v>
+        <v>0.8196545629033397</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.74630182095032</v>
+        <v>0.7563816626695778</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7287433698635795</v>
+        <v>0.7568472459017224</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7671299330875687</v>
+        <v>0.7788028754428244</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7122847483098225</v>
+        <v>0.7037781950395848</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8152376832048834</v>
+        <v>0.8175324738212377</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.720027957144494</v>
+        <v>0.7227767316966098</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7641907667549748</v>
+        <v>0.7404913565799847</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7504961912798862</v>
+        <v>0.7358316498130986</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9493762416369155</v>
+        <v>0.9241786296190514</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8028825465718229</v>
+        <v>0.8196545629033397</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395961715067083</v>
+        <v>0.9586703425399905</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9268384532764158</v>
+        <v>0.9686667540006266</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9257042063875575</v>
+        <v>0.9409282251399451</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8557394473227824</v>
+        <v>0.841195401180152</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8152376832048834</v>
+        <v>0.8175324738212377</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8508372761748875</v>
+        <v>0.8562977823430238</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.820052763451112</v>
+        <v>0.8051955699296925</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8462661688331914</v>
+        <v>0.8329591980721422</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9493762416369155</v>
+        <v>0.9241786296190514</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9453932279758646</v>
+        <v>0.9728113035987523</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395961715067083</v>
+        <v>0.9586703425399905</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9268384532764158</v>
+        <v>0.9686667540006266</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9257042063875575</v>
+        <v>0.9409282251399451</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9702192296948344</v>
+        <v>0.9572534432890659</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9661013039014223</v>
+        <v>0.9706139181115132</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9808853666190567</v>
+        <v>0.9890289286376878</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9305943603087675</v>
+        <v>0.9216430603157771</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9753973063170874</v>
+        <v>0.9617216812182603</v>
       </c>
       <c r="G11">
         <v>18</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/40_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/40_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1527495977943754</v>
+        <v>0.1876565091125819</v>
       </c>
       <c r="E2">
-        <v>0.03659301523446251</v>
+        <v>0.01251292254725333</v>
       </c>
       <c r="F2">
-        <v>0.03736259824145251</v>
+        <v>0.0136733176366529</v>
       </c>
       <c r="G2">
-        <v>0.01232984544018017</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,49 +710,49 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06815357926495033</v>
+        <v>0.06010067225978656</v>
       </c>
       <c r="L2">
-        <v>0.07175483202315611</v>
+        <v>0.06553072461067345</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2723356511443241</v>
+        <v>0.367971131196953</v>
       </c>
       <c r="O2">
-        <v>0.005164312262429246</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01712194496875847</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07452889627671148</v>
+        <v>0.06971352296805244</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1760843569682512</v>
+        <v>0.2228411996680464</v>
       </c>
       <c r="T2">
-        <v>0.0128222161267241</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02337225806813091</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001930907946117006</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.002277062753407794</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.002189888607870608</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01764359270745702</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003291545838099339</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01229389833314168</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0573170020502858</v>
+        <v>0.04810801494630937</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1086870604552426</v>
+        <v>0.1145742877765236</v>
       </c>
       <c r="G3">
-        <v>0.07034625948221949</v>
+        <v>0.06496620444687723</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -817,43 +817,43 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00448264987352717</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01423450444351915</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06710365942565312</v>
+        <v>0.06077069549222491</v>
       </c>
       <c r="N3">
-        <v>0.141139126413118</v>
+        <v>0.1565631026004545</v>
       </c>
       <c r="O3">
-        <v>0.1390313906905294</v>
+        <v>0.1538359626683332</v>
       </c>
       <c r="P3">
-        <v>0.03818202643054429</v>
+        <v>0.02334980851961561</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1791308836387006</v>
+        <v>0.205719568048646</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1531567406954126</v>
+        <v>0.1721123555010158</v>
       </c>
       <c r="U3">
-        <v>0.007594021489900185</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.007026776961102495</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01256789795024488</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1460468334408046</v>
+        <v>0.1705093808421249</v>
       </c>
       <c r="E4">
-        <v>0.01049832436519758</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.07324256406238241</v>
+        <v>0.06898586378678902</v>
       </c>
       <c r="G4">
-        <v>0.05127484433319767</v>
+        <v>0.03835249313924664</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -927,43 +927,43 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004548544365719698</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01085428041276319</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.09227668329236315</v>
+        <v>0.0955284106013715</v>
       </c>
       <c r="N4">
-        <v>0.13006441388713</v>
+        <v>0.1482223438593196</v>
       </c>
       <c r="O4">
-        <v>0.1083726007564995</v>
+        <v>0.1179737172453779</v>
       </c>
       <c r="P4">
-        <v>0.059226375625121</v>
+        <v>0.04944068109338431</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06997619812839886</v>
+        <v>0.06443100786365503</v>
       </c>
       <c r="S4">
-        <v>0.0017074281813929</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.2005812516890197</v>
+        <v>0.2465561015687312</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003107988504873026</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01654929560376489</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01199379897596225</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.009678574375409643</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1960862251634183</v>
+        <v>0.2111211465848363</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.05304588672389377</v>
+        <v>0.0458858978966725</v>
       </c>
       <c r="G5">
-        <v>0.006529274969156044</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1040,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.06106476141739949</v>
+        <v>0.05514902442891872</v>
       </c>
       <c r="L5">
-        <v>0.04505409376639921</v>
+        <v>0.03665405524863353</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2756470511004685</v>
+        <v>0.3030270593012148</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.119419952760987</v>
+        <v>0.1225589219382126</v>
       </c>
       <c r="R5">
-        <v>0.01872263926447885</v>
+        <v>0.006236870275421426</v>
       </c>
       <c r="S5">
-        <v>0.1930968688344255</v>
+        <v>0.2076679456079139</v>
       </c>
       <c r="T5">
-        <v>0.007882099043697069</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.02345114695567615</v>
+        <v>0.01169907871817627</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1696749000475067</v>
+        <v>0.2072126766431189</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08805910679608797</v>
+        <v>0.0911276552073385</v>
       </c>
       <c r="G6">
-        <v>0.09410416906061021</v>
+        <v>0.09972576048331082</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01070180907955718</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004726128933667756</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03713325596120528</v>
+        <v>0.01869402134444706</v>
       </c>
       <c r="N6">
-        <v>0.1808039175738392</v>
+        <v>0.2230418708056228</v>
       </c>
       <c r="O6">
-        <v>0.06783257898796012</v>
+        <v>0.06235875129011639</v>
       </c>
       <c r="P6">
-        <v>0.03546843333042241</v>
+        <v>0.01632608539624327</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.09029857567196747</v>
+        <v>0.09431293077845739</v>
       </c>
       <c r="S6">
-        <v>0.008520373440096938</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1536049762570237</v>
+        <v>0.1843558572289775</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.006972562137640886</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01377671280839072</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02598987026163812</v>
+        <v>0.002844390822367484</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.009668171147674962</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.00266445850471039</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1685239003719</v>
+        <v>0.2207326958482486</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1231790901210848</v>
+        <v>0.1494272213445155</v>
       </c>
       <c r="H7">
-        <v>0.06118035520300177</v>
+        <v>0.05193317103286806</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02459519067124272</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0184846262844624</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1272,28 +1272,28 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1989585679079309</v>
+        <v>0.26859172090572</v>
       </c>
       <c r="P7">
-        <v>0.03448101485999529</v>
+        <v>0.00994801062389895</v>
       </c>
       <c r="Q7">
-        <v>0.04951868063577418</v>
+        <v>0.03359499222200114</v>
       </c>
       <c r="R7">
-        <v>0.02485676898419292</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.1374172061405672</v>
+        <v>0.1718168975432408</v>
       </c>
       <c r="T7">
-        <v>0.03977576768892301</v>
+        <v>0.01827409823477141</v>
       </c>
       <c r="U7">
-        <v>0.07628227441999091</v>
+        <v>0.07568119224473539</v>
       </c>
       <c r="V7">
-        <v>0.01960449775608923</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.002557928680053135</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01846113195802449</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.002122998316767146</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,25 +1349,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02853592853180223</v>
+        <v>0.006435295060448538</v>
       </c>
       <c r="E8">
-        <v>0.08085737340963259</v>
+        <v>0.07811902494394832</v>
       </c>
       <c r="F8">
-        <v>0.0619652060443803</v>
+        <v>0.05223554589464471</v>
       </c>
       <c r="G8">
-        <v>0.1012326304577219</v>
+        <v>0.1060344318283057</v>
       </c>
       <c r="H8">
-        <v>0.00464114902357459</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001348827884346601</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02908582270951239</v>
+        <v>0.007188685296355172</v>
       </c>
       <c r="N8">
-        <v>0.09801311752306632</v>
+        <v>0.1016234929464921</v>
       </c>
       <c r="O8">
-        <v>0.1969721924678924</v>
+        <v>0.2372037624598765</v>
       </c>
       <c r="P8">
-        <v>0.02018137799580792</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1946988477735006</v>
+        <v>0.234089134655056</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1530814442902755</v>
+        <v>0.177070626914873</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.009888384602602782</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01169345516746731</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.007804242118416614</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07891557649926989</v>
+        <v>0.07493611133290436</v>
       </c>
       <c r="E9">
-        <v>0.09429055641348298</v>
+        <v>0.09585284051798955</v>
       </c>
       <c r="F9">
-        <v>0.09660403018952836</v>
+        <v>0.09900018150447137</v>
       </c>
       <c r="G9">
-        <v>0.140027673575724</v>
+        <v>0.1580754189361071</v>
       </c>
       <c r="H9">
-        <v>0.002940599889093691</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01269879497743338</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,31 +1486,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0254450330203684</v>
+        <v>0.002192674686616707</v>
       </c>
       <c r="N9">
-        <v>0.07517097090296845</v>
+        <v>0.06984180216308324</v>
       </c>
       <c r="O9">
-        <v>0.1684649882644564</v>
+        <v>0.1967626636293763</v>
       </c>
       <c r="P9">
-        <v>0.0282185079642843</v>
+        <v>0.00596581940792332</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1335210506464139</v>
+        <v>0.1492235524308357</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.132731146294664</v>
+        <v>0.1481489353906925</v>
       </c>
       <c r="U9">
-        <v>0.0003227920717699589</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.003691922807704048</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.005202182130802282</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.001754174352036058</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2564499300967058</v>
+        <v>0.3580531002672553</v>
       </c>
       <c r="E10">
-        <v>0.02379971605907798</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1455506815485327</v>
+        <v>0.1843236576510471</v>
       </c>
       <c r="G10">
-        <v>0.0421683542517446</v>
+        <v>0.0223698632586931</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02156315809614356</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.009967370479980153</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1599,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2409921460477999</v>
+        <v>0.3338376773310791</v>
       </c>
       <c r="O10">
-        <v>0.003584773280560407</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.007696514691379224</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.05342292537776828</v>
+        <v>0.04000073447022551</v>
       </c>
       <c r="R10">
-        <v>0.04499318443633159</v>
+        <v>0.02679510671055077</v>
       </c>
       <c r="S10">
-        <v>0.03788441937727207</v>
+        <v>0.01565885639715465</v>
       </c>
       <c r="T10">
-        <v>0.03356988657248097</v>
+        <v>0.008899916285850787</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.01615715245081688</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02872459793222402</v>
+        <v>0.001309519544606585</v>
       </c>
       <c r="AC10">
-        <v>0.03347518930118197</v>
+        <v>0.008751568083537184</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2349178465314651</v>
+        <v>0.3035408474612217</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1130230856429408</v>
+        <v>0.1255412300888899</v>
       </c>
       <c r="G11">
-        <v>0.06315328682152405</v>
+        <v>0.05271771377086363</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02907782636082701</v>
+        <v>0.002958241915161259</v>
       </c>
       <c r="K11">
-        <v>0.002073125531606556</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1709,25 +1709,25 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2074682322504038</v>
+        <v>0.2634569192970294</v>
       </c>
       <c r="O11">
-        <v>0.02882407574030034</v>
+        <v>0.002587696757744317</v>
       </c>
       <c r="P11">
-        <v>0.05729417093403104</v>
+        <v>0.04416180555535237</v>
       </c>
       <c r="Q11">
-        <v>0.004324936724596832</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.09280261153444676</v>
+        <v>0.09601381949172172</v>
       </c>
       <c r="S11">
-        <v>0.03540810146035247</v>
+        <v>0.01220217116498033</v>
       </c>
       <c r="T11">
-        <v>0.0933543816857656</v>
+        <v>0.09681955449703543</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0013197817579495</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.003727823784244888</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.004582953074551948</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.02333387453017276</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.004311111222484195</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.00100277441233612</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1527495977943754</v>
+        <v>0.1876565091125819</v>
       </c>
       <c r="E2">
-        <v>0.1893426130288379</v>
+        <v>0.2001694316598353</v>
       </c>
       <c r="F2">
-        <v>0.2267052112702904</v>
+        <v>0.2138427492964881</v>
       </c>
       <c r="G2">
-        <v>0.2390350567104706</v>
+        <v>0.2138427492964881</v>
       </c>
       <c r="H2">
-        <v>0.2390350567104706</v>
+        <v>0.2138427492964881</v>
       </c>
       <c r="I2">
-        <v>0.2390350567104706</v>
+        <v>0.2138427492964881</v>
       </c>
       <c r="J2">
-        <v>0.2390350567104706</v>
+        <v>0.2138427492964881</v>
       </c>
       <c r="K2">
-        <v>0.307188635975421</v>
+        <v>0.2739434215562747</v>
       </c>
       <c r="L2">
-        <v>0.378943467998577</v>
+        <v>0.3394741461669482</v>
       </c>
       <c r="M2">
-        <v>0.378943467998577</v>
+        <v>0.3394741461669482</v>
       </c>
       <c r="N2">
-        <v>0.651279119142901</v>
+        <v>0.7074452773639011</v>
       </c>
       <c r="O2">
-        <v>0.6564434314053302</v>
+        <v>0.7074452773639011</v>
       </c>
       <c r="P2">
-        <v>0.6735653763740888</v>
+        <v>0.7074452773639011</v>
       </c>
       <c r="Q2">
-        <v>0.7480942726508002</v>
+        <v>0.7771588003319535</v>
       </c>
       <c r="R2">
-        <v>0.7480942726508002</v>
+        <v>0.7771588003319535</v>
       </c>
       <c r="S2">
-        <v>0.9241786296190514</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9370008457457755</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9603731038139064</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9623040117600234</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9645810745134312</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9645810745134312</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9667709631213018</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9667709631213018</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9667709631213018</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9844145558287588</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9877061016668581</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9877061016668581</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9877061016668581</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9877061016668581</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,79 +2022,79 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0573170020502858</v>
+        <v>0.04810801494630937</v>
       </c>
       <c r="E3">
-        <v>0.0573170020502858</v>
+        <v>0.04810801494630937</v>
       </c>
       <c r="F3">
-        <v>0.1660040625055284</v>
+        <v>0.1626823027228329</v>
       </c>
       <c r="G3">
-        <v>0.2363503219877479</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="H3">
-        <v>0.2363503219877479</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="I3">
-        <v>0.2363503219877479</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="J3">
-        <v>0.2408329718612751</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="K3">
-        <v>0.2550674763047943</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="L3">
-        <v>0.2550674763047943</v>
+        <v>0.2276485071697102</v>
       </c>
       <c r="M3">
-        <v>0.3221711357304474</v>
+        <v>0.288419202661935</v>
       </c>
       <c r="N3">
-        <v>0.4633102621435654</v>
+        <v>0.4449823052623896</v>
       </c>
       <c r="O3">
-        <v>0.6023416528340948</v>
+        <v>0.5988182679307228</v>
       </c>
       <c r="P3">
-        <v>0.640523679264639</v>
+        <v>0.6221680764503384</v>
       </c>
       <c r="Q3">
-        <v>0.640523679264639</v>
+        <v>0.6221680764503384</v>
       </c>
       <c r="R3">
-        <v>0.8196545629033397</v>
+        <v>0.8278876444989844</v>
       </c>
       <c r="S3">
-        <v>0.8196545629033397</v>
+        <v>0.8278876444989844</v>
       </c>
       <c r="T3">
-        <v>0.9728113035987523</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.9804053250886525</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9874321020497551</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2132,94 +2132,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1460468334408046</v>
+        <v>0.1705093808421249</v>
       </c>
       <c r="E4">
-        <v>0.1565451578060022</v>
+        <v>0.1705093808421249</v>
       </c>
       <c r="F4">
-        <v>0.2297877218683846</v>
+        <v>0.2394952446289139</v>
       </c>
       <c r="G4">
-        <v>0.2810625662015823</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="H4">
-        <v>0.2810625662015823</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="I4">
-        <v>0.2810625662015823</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="J4">
-        <v>0.285611110567302</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="K4">
-        <v>0.285611110567302</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="L4">
-        <v>0.2964653909800652</v>
+        <v>0.2778477377681606</v>
       </c>
       <c r="M4">
-        <v>0.3887420742724284</v>
+        <v>0.3733761483695321</v>
       </c>
       <c r="N4">
-        <v>0.5188064881595584</v>
+        <v>0.5215984922288517</v>
       </c>
       <c r="O4">
-        <v>0.627179088916058</v>
+        <v>0.6395722094742295</v>
       </c>
       <c r="P4">
-        <v>0.686405464541179</v>
+        <v>0.6890128905676138</v>
       </c>
       <c r="Q4">
-        <v>0.686405464541179</v>
+        <v>0.6890128905676138</v>
       </c>
       <c r="R4">
-        <v>0.7563816626695778</v>
+        <v>0.7534438984312689</v>
       </c>
       <c r="S4">
-        <v>0.7580890908509708</v>
+        <v>0.7534438984312689</v>
       </c>
       <c r="T4">
-        <v>0.9586703425399905</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9586703425399905</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9617783310448635</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9783276266486285</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9783276266486285</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9903214256245907</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9903214256245907</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9903214256245907</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1960862251634183</v>
+        <v>0.2111211465848363</v>
       </c>
       <c r="E5">
-        <v>0.1960862251634183</v>
+        <v>0.2111211465848363</v>
       </c>
       <c r="F5">
-        <v>0.2491321118873121</v>
+        <v>0.2570070444815088</v>
       </c>
       <c r="G5">
-        <v>0.2556613868564682</v>
+        <v>0.2570070444815088</v>
       </c>
       <c r="H5">
-        <v>0.2556613868564682</v>
+        <v>0.2570070444815088</v>
       </c>
       <c r="I5">
-        <v>0.2556613868564682</v>
+        <v>0.2570070444815088</v>
       </c>
       <c r="J5">
-        <v>0.2556613868564682</v>
+        <v>0.2570070444815088</v>
       </c>
       <c r="K5">
-        <v>0.3167261482738676</v>
+        <v>0.3121560689104275</v>
       </c>
       <c r="L5">
-        <v>0.3617802420402668</v>
+        <v>0.348810124159061</v>
       </c>
       <c r="M5">
-        <v>0.3617802420402668</v>
+        <v>0.348810124159061</v>
       </c>
       <c r="N5">
-        <v>0.6374272931407353</v>
+        <v>0.6518371834602759</v>
       </c>
       <c r="O5">
-        <v>0.6374272931407353</v>
+        <v>0.6518371834602759</v>
       </c>
       <c r="P5">
-        <v>0.6374272931407353</v>
+        <v>0.6518371834602759</v>
       </c>
       <c r="Q5">
-        <v>0.7568472459017224</v>
+        <v>0.7743961053984885</v>
       </c>
       <c r="R5">
-        <v>0.7755698851662012</v>
+        <v>0.7806329756739099</v>
       </c>
       <c r="S5">
-        <v>0.9686667540006266</v>
+        <v>0.9883009212818238</v>
       </c>
       <c r="T5">
-        <v>0.9765488530443237</v>
+        <v>0.9883009212818238</v>
       </c>
       <c r="U5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,94 +2352,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1696749000475067</v>
+        <v>0.2072126766431189</v>
       </c>
       <c r="E6">
-        <v>0.1696749000475067</v>
+        <v>0.2072126766431189</v>
       </c>
       <c r="F6">
-        <v>0.2577340068435947</v>
+        <v>0.2983403318504574</v>
       </c>
       <c r="G6">
-        <v>0.3518381759042049</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="H6">
-        <v>0.3518381759042049</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="I6">
-        <v>0.3625399849837621</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="J6">
-        <v>0.3672661139174299</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="K6">
-        <v>0.3672661139174299</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="L6">
-        <v>0.3672661139174299</v>
+        <v>0.3980660923337682</v>
       </c>
       <c r="M6">
-        <v>0.4043993698786351</v>
+        <v>0.4167601136782153</v>
       </c>
       <c r="N6">
-        <v>0.5852032874524744</v>
+        <v>0.6398019844838381</v>
       </c>
       <c r="O6">
-        <v>0.6530358664404345</v>
+        <v>0.7021607357739544</v>
       </c>
       <c r="P6">
-        <v>0.6885042997708569</v>
+        <v>0.7184868211701977</v>
       </c>
       <c r="Q6">
-        <v>0.6885042997708569</v>
+        <v>0.7184868211701977</v>
       </c>
       <c r="R6">
-        <v>0.7788028754428244</v>
+        <v>0.8127997519486551</v>
       </c>
       <c r="S6">
-        <v>0.7873232488829214</v>
+        <v>0.8127997519486551</v>
       </c>
       <c r="T6">
-        <v>0.9409282251399451</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="U6">
-        <v>0.9409282251399451</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="V6">
-        <v>0.9409282251399451</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="W6">
-        <v>0.947900787277586</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="X6">
-        <v>0.947900787277586</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="Y6">
-        <v>0.947900787277586</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="Z6">
-        <v>0.9616775000859767</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="AA6">
-        <v>0.9616775000859767</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="AB6">
-        <v>0.9616775000859767</v>
+        <v>0.9971556091776326</v>
       </c>
       <c r="AC6">
-        <v>0.9876673703476149</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9876673703476149</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9973355414952898</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9973355414952898</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9973355414952898</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1685239003719</v>
+        <v>0.2207326958482486</v>
       </c>
       <c r="F7">
-        <v>0.1685239003719</v>
+        <v>0.2207326958482486</v>
       </c>
       <c r="G7">
-        <v>0.2917029904929848</v>
+        <v>0.3701599171927641</v>
       </c>
       <c r="H7">
-        <v>0.3528833456959865</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="I7">
-        <v>0.3528833456959865</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="J7">
-        <v>0.3528833456959865</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="K7">
-        <v>0.3774785363672292</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="L7">
-        <v>0.3959631626516916</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="M7">
-        <v>0.3959631626516916</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="N7">
-        <v>0.3959631626516916</v>
+        <v>0.4220930882256321</v>
       </c>
       <c r="O7">
-        <v>0.5949217305596225</v>
+        <v>0.6906848091313522</v>
       </c>
       <c r="P7">
-        <v>0.6294027454196178</v>
+        <v>0.7006328197552512</v>
       </c>
       <c r="Q7">
-        <v>0.678921426055392</v>
+        <v>0.7342278119772523</v>
       </c>
       <c r="R7">
-        <v>0.7037781950395848</v>
+        <v>0.7342278119772523</v>
       </c>
       <c r="S7">
-        <v>0.841195401180152</v>
+        <v>0.9060447095204931</v>
       </c>
       <c r="T7">
-        <v>0.880971168869075</v>
+        <v>0.9243188077552645</v>
       </c>
       <c r="U7">
-        <v>0.9572534432890659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V7">
-        <v>0.9768579410451551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W7">
-        <v>0.9768579410451551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X7">
-        <v>0.9768579410451551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.9768579410451551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9768579410451551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9794158697252082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9794158697252082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9794158697252082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9978770016832327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.9978770016832327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02853592853180223</v>
+        <v>0.006435295060448538</v>
       </c>
       <c r="E8">
-        <v>0.1093933019414348</v>
+        <v>0.08455432000439686</v>
       </c>
       <c r="F8">
-        <v>0.1713585079858151</v>
+        <v>0.1367898658990416</v>
       </c>
       <c r="G8">
-        <v>0.272591138443537</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="H8">
-        <v>0.2772322874671116</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="I8">
-        <v>0.2772322874671116</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="J8">
-        <v>0.2785811153514582</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="K8">
-        <v>0.2785811153514582</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="L8">
-        <v>0.2785811153514582</v>
+        <v>0.2428242977273472</v>
       </c>
       <c r="M8">
-        <v>0.3076669380609706</v>
+        <v>0.2500129830237024</v>
       </c>
       <c r="N8">
-        <v>0.4056800555840369</v>
+        <v>0.3516364759701945</v>
       </c>
       <c r="O8">
-        <v>0.6026522480519293</v>
+        <v>0.5888402384300711</v>
       </c>
       <c r="P8">
-        <v>0.6228336260477372</v>
+        <v>0.5888402384300711</v>
       </c>
       <c r="Q8">
-        <v>0.6228336260477372</v>
+        <v>0.5888402384300711</v>
       </c>
       <c r="R8">
-        <v>0.8175324738212377</v>
+        <v>0.822929373085127</v>
       </c>
       <c r="S8">
-        <v>0.8175324738212377</v>
+        <v>0.822929373085127</v>
       </c>
       <c r="T8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9706139181115132</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.980502302714116</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.980502302714116</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.980502302714116</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9921957578815833</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07891557649926989</v>
+        <v>0.07493611133290436</v>
       </c>
       <c r="E9">
-        <v>0.1732061329127529</v>
+        <v>0.1707889518508939</v>
       </c>
       <c r="F9">
-        <v>0.2698101631022812</v>
+        <v>0.2697891333553653</v>
       </c>
       <c r="G9">
-        <v>0.4098378366780052</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="H9">
-        <v>0.4127784365670989</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="I9">
-        <v>0.4127784365670989</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="J9">
-        <v>0.4254772315445323</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="K9">
-        <v>0.4254772315445323</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="L9">
-        <v>0.4254772315445323</v>
+        <v>0.4278645522914724</v>
       </c>
       <c r="M9">
-        <v>0.4509222645649006</v>
+        <v>0.4300572269780891</v>
       </c>
       <c r="N9">
-        <v>0.5260932354678691</v>
+        <v>0.4998990291411723</v>
       </c>
       <c r="O9">
-        <v>0.6945582237323256</v>
+        <v>0.6966616927705486</v>
       </c>
       <c r="P9">
-        <v>0.7227767316966098</v>
+        <v>0.7026275121784719</v>
       </c>
       <c r="Q9">
-        <v>0.7227767316966098</v>
+        <v>0.7026275121784719</v>
       </c>
       <c r="R9">
-        <v>0.8562977823430238</v>
+        <v>0.8518510646093076</v>
       </c>
       <c r="S9">
-        <v>0.8562977823430238</v>
+        <v>0.8518510646093076</v>
       </c>
       <c r="T9">
-        <v>0.9890289286376878</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.9893517207094578</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9893517207094578</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9893517207094578</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9893517207094578</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9893517207094578</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9930436435171618</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9930436435171618</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9930436435171618</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.998245825647964</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.998245825647964</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.998245825647964</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.998245825647964</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.998245825647964</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2564499300967058</v>
+        <v>0.3580531002672553</v>
       </c>
       <c r="E10">
-        <v>0.2802496461557838</v>
+        <v>0.3580531002672553</v>
       </c>
       <c r="F10">
-        <v>0.4258003277043164</v>
+        <v>0.5423767579183023</v>
       </c>
       <c r="G10">
-        <v>0.467968681956061</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="H10">
-        <v>0.467968681956061</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="I10">
-        <v>0.467968681956061</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="J10">
-        <v>0.4895318400522046</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="K10">
-        <v>0.4994992105321847</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="L10">
-        <v>0.4994992105321847</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="M10">
-        <v>0.4994992105321847</v>
+        <v>0.5647466211769954</v>
       </c>
       <c r="N10">
-        <v>0.7404913565799847</v>
+        <v>0.8985842985080744</v>
       </c>
       <c r="O10">
-        <v>0.7440761298605451</v>
+        <v>0.8985842985080744</v>
       </c>
       <c r="P10">
-        <v>0.7517726445519243</v>
+        <v>0.8985842985080744</v>
       </c>
       <c r="Q10">
-        <v>0.8051955699296925</v>
+        <v>0.9385850329783</v>
       </c>
       <c r="R10">
-        <v>0.8501887543660241</v>
+        <v>0.9653801396888507</v>
       </c>
       <c r="S10">
-        <v>0.8880731737432962</v>
+        <v>0.9810389960860054</v>
       </c>
       <c r="T10">
-        <v>0.9216430603157771</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="U10">
-        <v>0.9216430603157771</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="V10">
-        <v>0.9216430603157771</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="W10">
-        <v>0.9216430603157771</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="X10">
-        <v>0.9216430603157771</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="Y10">
-        <v>0.937800212766594</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="Z10">
-        <v>0.937800212766594</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="AA10">
-        <v>0.937800212766594</v>
+        <v>0.9899389123718562</v>
       </c>
       <c r="AB10">
-        <v>0.966524810698818</v>
+        <v>0.9912484319164627</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2349178465314651</v>
+        <v>0.3035408474612217</v>
       </c>
       <c r="E11">
-        <v>0.2349178465314651</v>
+        <v>0.3035408474612217</v>
       </c>
       <c r="F11">
-        <v>0.3479409321744059</v>
+        <v>0.4290820775501116</v>
       </c>
       <c r="G11">
-        <v>0.41109421899593</v>
+        <v>0.4817997913209753</v>
       </c>
       <c r="H11">
-        <v>0.41109421899593</v>
+        <v>0.4817997913209753</v>
       </c>
       <c r="I11">
-        <v>0.41109421899593</v>
+        <v>0.4817997913209753</v>
       </c>
       <c r="J11">
-        <v>0.440172045356757</v>
+        <v>0.4847580332361365</v>
       </c>
       <c r="K11">
-        <v>0.4422451708883635</v>
+        <v>0.4847580332361365</v>
       </c>
       <c r="L11">
-        <v>0.4422451708883635</v>
+        <v>0.4847580332361365</v>
       </c>
       <c r="M11">
-        <v>0.4422451708883635</v>
+        <v>0.4847580332361365</v>
       </c>
       <c r="N11">
-        <v>0.6497134031387672</v>
+        <v>0.7482149525331658</v>
       </c>
       <c r="O11">
-        <v>0.6785374788790676</v>
+        <v>0.7508026492909101</v>
       </c>
       <c r="P11">
-        <v>0.7358316498130986</v>
+        <v>0.7949644548462624</v>
       </c>
       <c r="Q11">
-        <v>0.7401565865376954</v>
+        <v>0.7949644548462624</v>
       </c>
       <c r="R11">
-        <v>0.8329591980721422</v>
+        <v>0.8909782743379842</v>
       </c>
       <c r="S11">
-        <v>0.8683672995324947</v>
+        <v>0.9031804455029645</v>
       </c>
       <c r="T11">
-        <v>0.9617216812182603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U11">
-        <v>0.9617216812182603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V11">
-        <v>0.9617216812182603</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W11">
-        <v>0.9630414629762097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X11">
-        <v>0.9630414629762097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.9667692867604546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.9713522398350065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.9713522398350065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.9713522398350065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9946861143651793</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9946861143651793</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.9989972255876635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9989972255876635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9989972255876635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7074452773639011</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.651279119142901</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>40</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0.04810801494630937</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.5988182679307228</v>
+      </c>
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6023416528340948</v>
-      </c>
       <c r="G3">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.5215984922288517</v>
+      </c>
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5188064881595584</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>40</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.6518371834602759</v>
+      </c>
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6374272931407353</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>40</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.6398019844838381</v>
+      </c>
+      <c r="F6">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5852032874524744</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>40</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.6906848091313522</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5949217305596225</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>40</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5888402384300711</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6026522480519293</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>40</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6966616927705486</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5260932354678691</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>40</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5423767579183023</v>
       </c>
       <c r="F10">
-        <v>0.7404913565799847</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>40</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.7482149525331658</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.6497134031387672</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>40</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7074452773639011</v>
       </c>
       <c r="F2">
-        <v>0.7480942726508002</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>40</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0.04810801494630937</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8278876444989844</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8196545629033397</v>
-      </c>
       <c r="G3">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.7534438984312689</v>
+      </c>
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7563816626695778</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>40</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.7743961053984885</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7568472459017224</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>40</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7021607357739544</v>
       </c>
       <c r="F6">
-        <v>0.7788028754428244</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>40</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7006328197552512</v>
       </c>
       <c r="F7">
-        <v>0.7037781950395848</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>40</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.822929373085127</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8175324738212377</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>40</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7026275121784719</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7227767316966098</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>40</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8985842985080744</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7404913565799847</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>40</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7482149525331658</v>
       </c>
       <c r="F11">
-        <v>0.7358316498130986</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>40</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9241786296190514</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>40</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0.04810801494630937</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8278876444989844</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8196545629033397</v>
-      </c>
       <c r="G3">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9586703425399905</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>40</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9883009212818238</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9686667540006266</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>40</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8127997519486551</v>
       </c>
       <c r="F6">
-        <v>0.9409282251399451</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>40</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.9060447095204931</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.841195401180152</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>40</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.822929373085127</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8175324738212377</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>40</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8518510646093076</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8562977823430238</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>40</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8985842985080744</v>
       </c>
       <c r="F10">
-        <v>0.8051955699296925</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>40</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.8909782743379842</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8329591980721422</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>40</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9241786296190514</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>40</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0.04810801494630937</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9728113035987523</v>
-      </c>
       <c r="G3">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9586703425399905</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>40</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9883009212818238</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9686667540006266</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>40</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9971556091776326</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9409282251399451</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>40</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9060447095204931</v>
       </c>
       <c r="F7">
-        <v>0.9572534432890659</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>40</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9706139181115132</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>40</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9890289286376878</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>40</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9385850329783</v>
       </c>
       <c r="F10">
-        <v>0.9216430603157771</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>40</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9031804455029645</v>
       </c>
       <c r="F11">
-        <v>0.9617216812182603</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>40</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
